--- a/BD_Motor001.xlsx
+++ b/BD_Motor001.xlsx
@@ -787,10 +787,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -823,10 +823,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -859,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1175</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -895,10 +895,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -931,10 +931,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -967,10 +967,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1003,10 +1003,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1039,10 +1039,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>

--- a/BD_Motor001.xlsx
+++ b/BD_Motor001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1058,6 +1058,690 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>449</v>
+      </c>
+      <c r="F18" t="n">
+        <v>74</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>447</v>
+      </c>
+      <c r="F19" t="n">
+        <v>633</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="n">
+        <v>692</v>
+      </c>
+      <c r="F20" t="n">
+        <v>222</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>202</v>
+      </c>
+      <c r="F21" t="n">
+        <v>498</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="n">
+        <v>694</v>
+      </c>
+      <c r="F22" t="n">
+        <v>493</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="n">
+        <v>208</v>
+      </c>
+      <c r="F23" t="n">
+        <v>221</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="n">
+        <v>609</v>
+      </c>
+      <c r="F24" t="n">
+        <v>272</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="n">
+        <v>304</v>
+      </c>
+      <c r="F25" t="n">
+        <v>271</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="n">
+        <v>350</v>
+      </c>
+      <c r="F26" t="n">
+        <v>138</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="n">
+        <v>563</v>
+      </c>
+      <c r="F27" t="n">
+        <v>142</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="n">
+        <v>286</v>
+      </c>
+      <c r="F28" t="n">
+        <v>57</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="n">
+        <v>528</v>
+      </c>
+      <c r="F29" t="n">
+        <v>163</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="n">
+        <v>160</v>
+      </c>
+      <c r="F30" t="n">
+        <v>124</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="n">
+        <v>593</v>
+      </c>
+      <c r="F31" t="n">
+        <v>207</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="n">
+        <v>105</v>
+      </c>
+      <c r="F32" t="n">
+        <v>219</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="n">
+        <v>527</v>
+      </c>
+      <c r="F33" t="n">
+        <v>452</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="n">
+        <v>229</v>
+      </c>
+      <c r="F34" t="n">
+        <v>450</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="n">
+        <v>592</v>
+      </c>
+      <c r="F35" t="n">
+        <v>546</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="n">
+        <v>147</v>
+      </c>
+      <c r="F36" t="n">
+        <v>568</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>M8</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
